--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_no_assign_models_results_Date_threshold_100_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_no_assign_models_results_Date_threshold_100_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="323">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -88,31 +88,28 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.001+/-0.0</t>
-  </si>
-  <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.807+/-0.0</t>
-  </si>
-  <si>
-    <t>0.794</t>
-  </si>
-  <si>
-    <t>0.554+/-0.056</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.213+/-0.025</t>
+    <t>0.808+/-0.0</t>
+  </si>
+  <si>
+    <t>0.796</t>
+  </si>
+  <si>
+    <t>0.565+/-0.063</t>
+  </si>
+  <si>
+    <t>0.486</t>
+  </si>
+  <si>
+    <t>0.212+/-0.027</t>
   </si>
   <si>
     <t>0.189</t>
   </si>
   <si>
-    <t>0.004+/-0.001</t>
+    <t>0.002+/-0.0</t>
   </si>
   <si>
     <t>0.807+/-0.001</t>
@@ -124,880 +121,871 @@
     <t>0.804</t>
   </si>
   <si>
-    <t>0.647+/-0.011</t>
-  </si>
-  <si>
-    <t>0.644+/-0.161</t>
+    <t>0.65+/-0.016</t>
+  </si>
+  <si>
+    <t>0.648+/-0.163</t>
   </si>
   <si>
     <t>0.641</t>
   </si>
   <si>
-    <t>0.086+/-0.004</t>
-  </si>
-  <si>
-    <t>0.083+/-0.033</t>
+    <t>0.088+/-0.005</t>
+  </si>
+  <si>
+    <t>0.086+/-0.034</t>
   </si>
   <si>
     <t>0.067</t>
   </si>
   <si>
-    <t>0.212+/-0.012</t>
-  </si>
-  <si>
-    <t>0.66+/-0.008</t>
-  </si>
-  <si>
-    <t>0.659+/-0.0</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>0.313+/-0.004</t>
-  </si>
-  <si>
-    <t>0.312+/-0.017</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
-    <t>0.579+/-0.015</t>
-  </si>
-  <si>
-    <t>0.574+/-0.045</t>
-  </si>
-  <si>
-    <t>0.536</t>
+    <t>0.063+/-0.01</t>
+  </si>
+  <si>
+    <t>0.682+/-0.007</t>
+  </si>
+  <si>
+    <t>0.683+/-0.0</t>
+  </si>
+  <si>
+    <t>0.663</t>
+  </si>
+  <si>
+    <t>0.324+/-0.003</t>
+  </si>
+  <si>
+    <t>0.326+/-0.019</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.531+/-0.017</t>
+  </si>
+  <si>
+    <t>0.536+/-0.037</t>
+  </si>
+  <si>
+    <t>0.491</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.734+/-0.002</t>
+  </si>
+  <si>
+    <t>0.732+/-0.0</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.348+/-0.003</t>
+  </si>
+  <si>
+    <t>0.343+/-0.031</t>
+  </si>
+  <si>
+    <t>0.311</t>
+  </si>
+  <si>
+    <t>0.368+/-0.015</t>
+  </si>
+  <si>
+    <t>0.362+/-0.038</t>
+  </si>
+  <si>
+    <t>0.323</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.853+/-0.007</t>
+  </si>
+  <si>
+    <t>0.803</t>
+  </si>
+  <si>
+    <t>0.755+/-0.027</t>
+  </si>
+  <si>
+    <t>0.555+/-0.058</t>
+  </si>
+  <si>
+    <t>0.521</t>
+  </si>
+  <si>
+    <t>0.406+/-0.062</t>
+  </si>
+  <si>
+    <t>0.294+/-0.073</t>
+  </si>
+  <si>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>3.518+/-0.877</t>
+  </si>
+  <si>
+    <t>0.869+/-0.005</t>
+  </si>
+  <si>
+    <t>0.795+/-0.0</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.859+/-0.03</t>
+  </si>
+  <si>
+    <t>0.492+/-0.087</t>
+  </si>
+  <si>
+    <t>0.494</t>
+  </si>
+  <si>
+    <t>0.417+/-0.035</t>
+  </si>
+  <si>
+    <t>0.239+/-0.032</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>0.081+/-0.01</t>
+  </si>
+  <si>
+    <t>0.856+/-0.004</t>
+  </si>
+  <si>
+    <t>0.793+/-0.0</t>
+  </si>
+  <si>
+    <t>0.785</t>
+  </si>
+  <si>
+    <t>0.849+/-0.06</t>
+  </si>
+  <si>
+    <t>0.474+/-0.088</t>
+  </si>
+  <si>
+    <t>0.413</t>
+  </si>
+  <si>
+    <t>0.351+/-0.041</t>
+  </si>
+  <si>
+    <t>0.196+/-0.048</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>0.103+/-0.004</t>
+  </si>
+  <si>
+    <t>0.823+/-0.001</t>
+  </si>
+  <si>
+    <t>0.812+/-0.0</t>
+  </si>
+  <si>
+    <t>0.807</t>
+  </si>
+  <si>
+    <t>0.846+/-0.008</t>
+  </si>
+  <si>
+    <t>0.73+/-0.087</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.146+/-0.005</t>
+  </si>
+  <si>
+    <t>0.112+/-0.03</t>
+  </si>
+  <si>
+    <t>0.085</t>
+  </si>
+  <si>
+    <t>11.444+/-0.408</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.857+/-0.0</t>
+  </si>
+  <si>
+    <t>0.848</t>
+  </si>
+  <si>
+    <t>0.579+/-0.066</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.179+/-0.025</t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>0.856+/-0.001</t>
+  </si>
+  <si>
+    <t>0.855+/-0.0</t>
+  </si>
+  <si>
+    <t>0.66+/-0.021</t>
+  </si>
+  <si>
+    <t>0.642+/-0.14</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.08+/-0.006</t>
+  </si>
+  <si>
+    <t>0.076+/-0.025</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.174+/-0.013</t>
+  </si>
+  <si>
+    <t>0.696+/-0.009</t>
+  </si>
+  <si>
+    <t>0.696+/-0.0</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.266+/-0.005</t>
+  </si>
+  <si>
+    <t>0.267+/-0.014</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.585+/-0.011</t>
+  </si>
+  <si>
+    <t>0.587+/-0.04</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.769+/-0.003</t>
+  </si>
+  <si>
+    <t>0.769+/-0.0</t>
+  </si>
+  <si>
+    <t>0.754</t>
+  </si>
+  <si>
+    <t>0.305+/-0.003</t>
+  </si>
+  <si>
+    <t>0.303+/-0.026</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.42+/-0.01</t>
+  </si>
+  <si>
+    <t>0.414+/-0.033</t>
+  </si>
+  <si>
+    <t>0.373</t>
   </si>
   <si>
     <t>0.007+/-0.0</t>
   </si>
   <si>
-    <t>0.722+/-0.003</t>
-  </si>
-  <si>
-    <t>0.72+/-0.0</t>
-  </si>
-  <si>
-    <t>0.714</t>
-  </si>
-  <si>
-    <t>0.342+/-0.002</t>
-  </si>
-  <si>
-    <t>0.338+/-0.026</t>
-  </si>
-  <si>
-    <t>0.323</t>
-  </si>
-  <si>
-    <t>0.411+/-0.012</t>
-  </si>
-  <si>
-    <t>0.404+/-0.039</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.01+/-0.002</t>
-  </si>
-  <si>
-    <t>0.86+/-0.006</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
-    <t>0.787</t>
-  </si>
-  <si>
-    <t>0.762+/-0.036</t>
-  </si>
-  <si>
-    <t>0.519+/-0.073</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>0.445+/-0.055</t>
-  </si>
-  <si>
-    <t>0.289+/-0.053</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>11.482+/-2.849</t>
-  </si>
-  <si>
-    <t>0.871+/-0.005</t>
-  </si>
-  <si>
-    <t>0.797+/-0.0</t>
-  </si>
-  <si>
-    <t>0.864+/-0.032</t>
-  </si>
-  <si>
-    <t>0.492+/-0.058</t>
-  </si>
-  <si>
-    <t>0.497</t>
-  </si>
-  <si>
-    <t>0.427+/-0.037</t>
-  </si>
-  <si>
-    <t>0.24+/-0.034</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>0.116+/-0.004</t>
-  </si>
-  <si>
-    <t>0.858+/-0.004</t>
-  </si>
-  <si>
-    <t>0.792+/-0.0</t>
-  </si>
-  <si>
-    <t>0.782</t>
-  </si>
-  <si>
-    <t>0.847+/-0.046</t>
-  </si>
-  <si>
-    <t>0.462+/-0.071</t>
+    <t>0.89+/-0.003</t>
+  </si>
+  <si>
+    <t>0.848+/-0.0</t>
+  </si>
+  <si>
+    <t>0.843</t>
+  </si>
+  <si>
+    <t>0.769+/-0.069</t>
+  </si>
+  <si>
+    <t>0.502+/-0.103</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.393+/-0.07</t>
+  </si>
+  <si>
+    <t>0.251+/-0.061</t>
+  </si>
+  <si>
+    <t>0.211</t>
+  </si>
+  <si>
+    <t>3.456+/-0.712</t>
+  </si>
+  <si>
+    <t>0.908+/-0.004</t>
+  </si>
+  <si>
+    <t>0.845+/-0.0</t>
+  </si>
+  <si>
+    <t>0.895+/-0.032</t>
+  </si>
+  <si>
+    <t>0.472+/-0.045</t>
+  </si>
+  <si>
+    <t>0.447</t>
+  </si>
+  <si>
+    <t>0.442+/-0.033</t>
+  </si>
+  <si>
+    <t>0.238+/-0.035</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.078+/-0.007</t>
+  </si>
+  <si>
+    <t>0.9+/-0.004</t>
+  </si>
+  <si>
+    <t>0.844+/-0.0</t>
+  </si>
+  <si>
+    <t>0.878+/-0.049</t>
+  </si>
+  <si>
+    <t>0.46+/-0.083</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>0.393+/-0.035</t>
+  </si>
+  <si>
+    <t>0.208+/-0.039</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.103+/-0.005</t>
+  </si>
+  <si>
+    <t>0.866+/-0.001</t>
+  </si>
+  <si>
+    <t>0.859+/-0.0</t>
+  </si>
+  <si>
+    <t>0.856</t>
+  </si>
+  <si>
+    <t>0.891+/-0.013</t>
+  </si>
+  <si>
+    <t>0.768+/-0.14</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>0.121+/-0.006</t>
+  </si>
+  <si>
+    <t>0.084+/-0.021</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>8.351+/-0.288</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.706+/-0.0</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.426+/-0.045</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.189+/-0.034</t>
+  </si>
+  <si>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t>0.728+/-0.001</t>
+  </si>
+  <si>
+    <t>0.727+/-0.0</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.586+/-0.008</t>
+  </si>
+  <si>
+    <t>0.571+/-0.092</t>
+  </si>
+  <si>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.06+/-0.003</t>
+  </si>
+  <si>
+    <t>0.059+/-0.011</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>0.083+/-0.008</t>
+  </si>
+  <si>
+    <t>0.672+/-0.004</t>
+  </si>
+  <si>
+    <t>0.672+/-0.0</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>0.371+/-0.004</t>
+  </si>
+  <si>
+    <t>0.372+/-0.022</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.267+/-0.012</t>
+  </si>
+  <si>
+    <t>0.268+/-0.03</t>
+  </si>
+  <si>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>0.675+/-0.003</t>
+  </si>
+  <si>
+    <t>0.674+/-0.0</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>0.375+/-0.004</t>
+  </si>
+  <si>
+    <t>0.375+/-0.027</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.263+/-0.008</t>
+  </si>
+  <si>
+    <t>0.264+/-0.022</t>
+  </si>
+  <si>
+    <t>0.264</t>
+  </si>
+  <si>
+    <t>0.772+/-0.006</t>
+  </si>
+  <si>
+    <t>0.699+/-0.0</t>
+  </si>
+  <si>
+    <t>0.705</t>
+  </si>
+  <si>
+    <t>0.695+/-0.022</t>
+  </si>
+  <si>
+    <t>0.404+/-0.06</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.315+/-0.038</t>
+  </si>
+  <si>
+    <t>0.177+/-0.037</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>3.777+/-0.606</t>
+  </si>
+  <si>
+    <t>0.815+/-0.007</t>
+  </si>
+  <si>
+    <t>0.688+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.846+/-0.038</t>
+  </si>
+  <si>
+    <t>0.381+/-0.028</t>
+  </si>
+  <si>
+    <t>0.378</t>
+  </si>
+  <si>
+    <t>0.407+/-0.043</t>
+  </si>
+  <si>
+    <t>0.202+/-0.031</t>
+  </si>
+  <si>
+    <t>0.171</t>
+  </si>
+  <si>
+    <t>0.082+/-0.028</t>
+  </si>
+  <si>
+    <t>0.793+/-0.005</t>
+  </si>
+  <si>
+    <t>0.694+/-0.0</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.788+/-0.029</t>
+  </si>
+  <si>
+    <t>0.388+/-0.033</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.348+/-0.027</t>
+  </si>
+  <si>
+    <t>0.177+/-0.021</t>
+  </si>
+  <si>
+    <t>0.196</t>
+  </si>
+  <si>
+    <t>0.098+/-0.003</t>
+  </si>
+  <si>
+    <t>0.738+/-0.001</t>
+  </si>
+  <si>
+    <t>0.726+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.807+/-0.017</t>
+  </si>
+  <si>
+    <t>0.581+/-0.097</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>0.07+/-0.006</t>
+  </si>
+  <si>
+    <t>0.042+/-0.014</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>17.327+/-1.681</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.666+/-0.0</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.417+/-0.029</t>
+  </si>
+  <si>
+    <t>0.432</t>
+  </si>
+  <si>
+    <t>0.212+/-0.021</t>
+  </si>
+  <si>
+    <t>0.222</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.698+/-0.001</t>
+  </si>
+  <si>
+    <t>0.698+/-0.0</t>
+  </si>
+  <si>
+    <t>0.606+/-0.014</t>
+  </si>
+  <si>
+    <t>0.604+/-0.072</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>0.054+/-0.003</t>
+  </si>
+  <si>
+    <t>0.054+/-0.014</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.088+/-0.008</t>
+  </si>
+  <si>
+    <t>0.648+/-0.003</t>
+  </si>
+  <si>
+    <t>0.648+/-0.0</t>
+  </si>
+  <si>
+    <t>0.655</t>
+  </si>
+  <si>
+    <t>0.386+/-0.004</t>
+  </si>
+  <si>
+    <t>0.387+/-0.03</t>
+  </si>
+  <si>
+    <t>0.405</t>
+  </si>
+  <si>
+    <t>0.244+/-0.009</t>
+  </si>
+  <si>
+    <t>0.244+/-0.029</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>0.651+/-0.003</t>
+  </si>
+  <si>
+    <t>0.652+/-0.0</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>0.397+/-0.004</t>
+  </si>
+  <si>
+    <t>0.397+/-0.024</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.253+/-0.008</t>
+  </si>
+  <si>
+    <t>0.252+/-0.025</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>0.743+/-0.005</t>
+  </si>
+  <si>
+    <t>0.676+/-0.0</t>
+  </si>
+  <si>
+    <t>0.697+/-0.034</t>
+  </si>
+  <si>
+    <t>0.446+/-0.055</t>
   </si>
   <si>
     <t>0.407</t>
   </si>
   <si>
-    <t>0.364+/-0.039</t>
-  </si>
-  <si>
-    <t>0.202+/-0.045</t>
-  </si>
-  <si>
-    <t>0.176</t>
-  </si>
-  <si>
-    <t>0.152+/-0.003</t>
-  </si>
-  <si>
-    <t>0.823+/-0.001</t>
-  </si>
-  <si>
-    <t>0.812+/-0.0</t>
-  </si>
-  <si>
-    <t>0.807</t>
-  </si>
-  <si>
-    <t>0.856+/-0.014</t>
-  </si>
-  <si>
-    <t>0.733+/-0.094</t>
-  </si>
-  <si>
-    <t>0.682</t>
-  </si>
-  <si>
-    <t>0.144+/-0.006</t>
-  </si>
-  <si>
-    <t>0.108+/-0.031</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>16.787+/-0.434</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.857+/-0.0</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.583+/-0.063</t>
-  </si>
-  <si>
-    <t>0.174+/-0.022</t>
-  </si>
-  <si>
-    <t>0.133</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
-  </si>
-  <si>
-    <t>0.855+/-0.001</t>
-  </si>
-  <si>
-    <t>0.854+/-0.0</t>
-  </si>
-  <si>
-    <t>0.851</t>
-  </si>
-  <si>
-    <t>0.642+/-0.02</t>
-  </si>
-  <si>
-    <t>0.628+/-0.131</t>
-  </si>
-  <si>
-    <t>0.519</t>
-  </si>
-  <si>
-    <t>0.079+/-0.007</t>
-  </si>
-  <si>
-    <t>0.076+/-0.025</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.265+/-0.017</t>
-  </si>
-  <si>
-    <t>0.732+/-0.006</t>
-  </si>
-  <si>
-    <t>0.73+/-0.0</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.288+/-0.005</t>
-  </si>
-  <si>
-    <t>0.285+/-0.016</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>0.533+/-0.007</t>
-  </si>
-  <si>
-    <t>0.53+/-0.037</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.758+/-0.001</t>
-  </si>
-  <si>
-    <t>0.756+/-0.0</t>
-  </si>
-  <si>
-    <t>0.745</t>
-  </si>
-  <si>
-    <t>0.284+/-0.003</t>
-  </si>
-  <si>
-    <t>0.28+/-0.031</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
-    <t>0.403+/-0.009</t>
-  </si>
-  <si>
-    <t>0.397+/-0.038</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.895+/-0.005</t>
-  </si>
-  <si>
-    <t>0.843+/-0.0</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.778+/-0.054</t>
-  </si>
-  <si>
-    <t>0.454+/-0.057</t>
-  </si>
-  <si>
-    <t>0.393</t>
-  </si>
-  <si>
-    <t>0.429+/-0.067</t>
-  </si>
-  <si>
-    <t>0.25+/-0.073</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>8.085+/-2.129</t>
-  </si>
-  <si>
-    <t>0.91+/-0.003</t>
-  </si>
-  <si>
-    <t>0.844+/-0.0</t>
-  </si>
-  <si>
-    <t>0.832</t>
-  </si>
-  <si>
-    <t>0.919+/-0.026</t>
-  </si>
-  <si>
-    <t>0.466+/-0.06</t>
-  </si>
-  <si>
-    <t>0.379</t>
-  </si>
-  <si>
-    <t>0.443+/-0.032</t>
-  </si>
-  <si>
-    <t>0.22+/-0.031</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.12+/-0.014</t>
-  </si>
-  <si>
-    <t>0.902+/-0.004</t>
-  </si>
-  <si>
-    <t>0.847+/-0.0</t>
-  </si>
-  <si>
-    <t>0.846</t>
-  </si>
-  <si>
-    <t>0.866+/-0.043</t>
-  </si>
-  <si>
-    <t>0.484+/-0.073</t>
-  </si>
-  <si>
-    <t>0.469</t>
-  </si>
-  <si>
-    <t>0.409+/-0.028</t>
-  </si>
-  <si>
-    <t>0.231+/-0.048</t>
-  </si>
-  <si>
-    <t>0.215</t>
-  </si>
-  <si>
-    <t>0.156+/-0.006</t>
-  </si>
-  <si>
-    <t>0.867+/-0.001</t>
-  </si>
-  <si>
-    <t>0.856+/-0.0</t>
-  </si>
-  <si>
-    <t>0.854</t>
-  </si>
-  <si>
-    <t>0.903+/-0.02</t>
-  </si>
-  <si>
-    <t>0.669+/-0.174</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.13+/-0.008</t>
-  </si>
-  <si>
-    <t>0.077+/-0.028</t>
-  </si>
-  <si>
-    <t>0.061</t>
-  </si>
-  <si>
-    <t>13.917+/-0.334</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.705+/-0.0</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.426+/-0.045</t>
-  </si>
-  <si>
-    <t>0.192+/-0.029</t>
-  </si>
-  <si>
-    <t>0.192</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.728+/-0.001</t>
-  </si>
-  <si>
-    <t>0.727+/-0.0</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.583+/-0.01</t>
-  </si>
-  <si>
-    <t>0.567+/-0.072</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.061+/-0.002</t>
-  </si>
-  <si>
-    <t>0.059+/-0.012</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>0.114+/-0.009</t>
-  </si>
-  <si>
-    <t>0.671+/-0.004</t>
+    <t>0.301+/-0.048</t>
+  </si>
+  <si>
+    <t>0.182+/-0.022</t>
+  </si>
+  <si>
+    <t>0.134</t>
+  </si>
+  <si>
+    <t>3.647+/-0.696</t>
+  </si>
+  <si>
+    <t>0.776+/-0.006</t>
+  </si>
+  <si>
+    <t>0.658+/-0.0</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.823+/-0.024</t>
+  </si>
+  <si>
+    <t>0.375+/-0.044</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.348+/-0.034</t>
+  </si>
+  <si>
+    <t>0.166+/-0.032</t>
+  </si>
+  <si>
+    <t>0.079+/-0.008</t>
+  </si>
+  <si>
+    <t>0.753+/-0.005</t>
   </si>
   <si>
     <t>0.671+/-0.0</t>
   </si>
   <si>
-    <t>0.671</t>
-  </si>
-  <si>
-    <t>0.371+/-0.004</t>
-  </si>
-  <si>
-    <t>0.371+/-0.021</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.267+/-0.012</t>
-  </si>
-  <si>
-    <t>0.268+/-0.03</t>
-  </si>
-  <si>
-    <t>0.264</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.672+/-0.003</t>
-  </si>
-  <si>
-    <t>0.666</t>
-  </si>
-  <si>
-    <t>0.371+/-0.005</t>
-  </si>
-  <si>
-    <t>0.371+/-0.03</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.267+/-0.009</t>
-  </si>
-  <si>
-    <t>0.267+/-0.023</t>
-  </si>
-  <si>
-    <t>0.258</t>
-  </si>
-  <si>
-    <t>0.773+/-0.007</t>
-  </si>
-  <si>
-    <t>0.701+/-0.0</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.716+/-0.038</t>
-  </si>
-  <si>
-    <t>0.405+/-0.031</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.303+/-0.055</t>
-  </si>
-  <si>
-    <t>0.181+/-0.046</t>
-  </si>
-  <si>
-    <t>0.151</t>
-  </si>
-  <si>
-    <t>6.49+/-1.199</t>
-  </si>
-  <si>
-    <t>0.816+/-0.008</t>
-  </si>
-  <si>
-    <t>0.687+/-0.0</t>
-  </si>
-  <si>
-    <t>0.846+/-0.034</t>
-  </si>
-  <si>
-    <t>0.381+/-0.042</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>0.412+/-0.046</t>
-  </si>
-  <si>
-    <t>0.206+/-0.033</t>
-  </si>
-  <si>
-    <t>0.171</t>
-  </si>
-  <si>
-    <t>0.09+/-0.006</t>
-  </si>
-  <si>
-    <t>0.793+/-0.005</t>
-  </si>
-  <si>
-    <t>0.695+/-0.0</t>
-  </si>
-  <si>
-    <t>0.677</t>
-  </si>
-  <si>
-    <t>0.788+/-0.023</t>
-  </si>
-  <si>
-    <t>0.389+/-0.019</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.346+/-0.025</t>
-  </si>
-  <si>
-    <t>0.179+/-0.019</t>
-  </si>
-  <si>
-    <t>0.198</t>
-  </si>
-  <si>
-    <t>0.128+/-0.006</t>
-  </si>
-  <si>
-    <t>0.738+/-0.001</t>
-  </si>
-  <si>
-    <t>0.728+/-0.0</t>
-  </si>
-  <si>
-    <t>0.725</t>
-  </si>
-  <si>
-    <t>0.807+/-0.017</t>
-  </si>
-  <si>
-    <t>0.615+/-0.103</t>
-  </si>
-  <si>
-    <t>0.531</t>
-  </si>
-  <si>
-    <t>0.072+/-0.006</t>
-  </si>
-  <si>
-    <t>0.046+/-0.015</t>
-  </si>
-  <si>
-    <t>22.692+/-1.287</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.666+/-0.0</t>
-  </si>
-  <si>
-    <t>0.414+/-0.034</t>
-  </si>
-  <si>
-    <t>0.418</t>
-  </si>
-  <si>
-    <t>0.205+/-0.025</t>
-  </si>
-  <si>
-    <t>0.218</t>
-  </si>
-  <si>
-    <t>0.697+/-0.001</t>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>0.77+/-0.041</t>
+  </si>
+  <si>
+    <t>0.407+/-0.052</t>
+  </si>
+  <si>
+    <t>0.464</t>
+  </si>
+  <si>
+    <t>0.282+/-0.015</t>
+  </si>
+  <si>
+    <t>0.151+/-0.027</t>
+  </si>
+  <si>
+    <t>0.168</t>
+  </si>
+  <si>
+    <t>0.104+/-0.002</t>
+  </si>
+  <si>
+    <t>0.707+/-0.001</t>
   </si>
   <si>
     <t>0.697+/-0.0</t>
   </si>
   <si>
-    <t>0.598+/-0.014</t>
-  </si>
-  <si>
-    <t>0.584+/-0.078</t>
-  </si>
-  <si>
-    <t>0.638</t>
-  </si>
-  <si>
-    <t>0.055+/-0.003</t>
-  </si>
-  <si>
-    <t>0.055+/-0.015</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>0.105+/-0.013</t>
-  </si>
-  <si>
-    <t>0.653+/-0.003</t>
-  </si>
-  <si>
-    <t>0.651+/-0.0</t>
-  </si>
-  <si>
-    <t>0.656</t>
-  </si>
-  <si>
-    <t>0.394+/-0.004</t>
-  </si>
-  <si>
-    <t>0.39+/-0.029</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.234+/-0.008</t>
-  </si>
-  <si>
-    <t>0.232+/-0.022</t>
-  </si>
-  <si>
-    <t>0.241</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.659+/-0.002</t>
-  </si>
-  <si>
-    <t>0.657+/-0.0</t>
-  </si>
-  <si>
-    <t>0.658</t>
-  </si>
-  <si>
-    <t>0.403+/-0.004</t>
-  </si>
-  <si>
-    <t>0.397+/-0.021</t>
-  </si>
-  <si>
-    <t>0.399</t>
-  </si>
-  <si>
-    <t>0.221+/-0.01</t>
-  </si>
-  <si>
-    <t>0.218+/-0.014</t>
-  </si>
-  <si>
-    <t>0.222</t>
-  </si>
-  <si>
-    <t>0.744+/-0.007</t>
-  </si>
-  <si>
-    <t>0.665+/-0.0</t>
-  </si>
-  <si>
-    <t>0.678</t>
-  </si>
-  <si>
-    <t>0.69+/-0.045</t>
-  </si>
-  <si>
-    <t>0.403+/-0.043</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.315+/-0.05</t>
-  </si>
-  <si>
-    <t>0.19+/-0.052</t>
-  </si>
-  <si>
-    <t>0.141</t>
-  </si>
-  <si>
-    <t>10.687+/-1.364</t>
-  </si>
-  <si>
-    <t>0.776+/-0.007</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.829+/-0.043</t>
-  </si>
-  <si>
-    <t>0.373+/-0.041</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.349+/-0.047</t>
-  </si>
-  <si>
-    <t>0.168+/-0.036</t>
-  </si>
-  <si>
-    <t>0.187</t>
-  </si>
-  <si>
-    <t>0.098+/-0.007</t>
-  </si>
-  <si>
-    <t>0.748+/-0.005</t>
-  </si>
-  <si>
-    <t>0.673+/-0.0</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.775+/-0.034</t>
-  </si>
-  <si>
-    <t>0.41+/-0.058</t>
-  </si>
-  <si>
-    <t>0.493</t>
-  </si>
-  <si>
-    <t>0.258+/-0.027</t>
-  </si>
-  <si>
-    <t>0.143+/-0.029</t>
-  </si>
-  <si>
-    <t>0.183</t>
-  </si>
-  <si>
-    <t>0.139+/-0.007</t>
-  </si>
-  <si>
-    <t>0.708+/-0.001</t>
-  </si>
-  <si>
-    <t>0.698+/-0.0</t>
-  </si>
-  <si>
     <t>0.696</t>
   </si>
   <si>
-    <t>0.813+/-0.012</t>
-  </si>
-  <si>
-    <t>0.636+/-0.074</t>
+    <t>0.811+/-0.012</t>
+  </si>
+  <si>
+    <t>0.628+/-0.085</t>
   </si>
   <si>
     <t>0.569</t>
   </si>
   <si>
-    <t>0.066+/-0.004</t>
-  </si>
-  <si>
-    <t>0.045+/-0.014</t>
+    <t>0.065+/-0.003</t>
+  </si>
+  <si>
+    <t>0.045+/-0.013</t>
   </si>
   <si>
     <t>0.051</t>
   </si>
   <si>
-    <t>21.873+/-2.207</t>
+    <t>16.478+/-0.197</t>
   </si>
 </sst>
 </file>
@@ -1398,28 +1386,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1430,28 +1418,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1462,28 +1450,28 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1494,28 +1482,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1526,28 +1514,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1558,28 +1546,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1590,28 +1578,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1622,28 +1610,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1654,28 +1642,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1683,31 +1671,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1757,31 +1745,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1789,31 +1777,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1821,31 +1809,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1856,28 +1844,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1888,28 +1876,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1920,28 +1908,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1952,28 +1940,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1987,25 +1975,25 @@
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2019,25 +2007,25 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2045,31 +2033,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J11" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2119,31 +2107,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2151,31 +2139,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2183,31 +2171,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="I4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2218,28 +2206,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2250,28 +2238,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2282,28 +2270,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2314,28 +2302,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2346,28 +2334,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2378,28 +2366,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2407,31 +2395,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2481,31 +2469,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2513,31 +2501,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="I3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2545,31 +2533,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G4" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="H4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2580,28 +2568,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2612,28 +2600,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2644,28 +2632,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2676,28 +2664,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2708,28 +2696,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G9" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2740,28 +2728,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H10" t="s">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="I10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2769,31 +2757,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
